--- a/trunk/TemporaryDocs/Cost estimation.xlsx
+++ b/trunk/TemporaryDocs/Cost estimation.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="B3:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
